--- a/PROJECTS MACRO/Profit Loss/Tarikan JDE/1201.920410.xlsx
+++ b/PROJECTS MACRO/Profit Loss/Tarikan JDE/1201.920410.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\Tarikan JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EA063D5-ED81-4D46-BE09-34A11695CB5C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD45E9AE-67F1-4D92-BD54-D89F63893683}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1 - 2024-02-18T074034.708" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1 - 2024-02-24T063211.921" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="85">
   <si>
     <t>Do Ty</t>
   </si>
@@ -257,6 +257,12 @@
   </si>
   <si>
     <t>ADMIN</t>
+  </si>
+  <si>
+    <t>MONTHLY ADMIN FEE</t>
+  </si>
+  <si>
+    <t>ND - LAINNYA BY AUDITOR</t>
   </si>
   <si>
     <t>Column Total</t>
@@ -1111,7 +1117,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ17"/>
+  <dimension ref="A1:AZ20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2580,13 +2586,13 @@
     </row>
     <row r="13" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="C13">
-        <v>24001581</v>
+        <v>24001225</v>
       </c>
       <c r="D13">
         <v>1201</v>
@@ -2595,26 +2601,17 @@
         <v>45338</v>
       </c>
       <c r="F13" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G13">
-        <v>0.22</v>
+        <v>222.67</v>
       </c>
       <c r="H13">
-        <v>0.22</v>
+        <v>222.67</v>
       </c>
       <c r="I13" t="s">
         <v>55</v>
       </c>
-      <c r="J13" t="s">
-        <v>55</v>
-      </c>
-      <c r="L13" s="2">
-        <v>3500</v>
-      </c>
-      <c r="N13" s="2">
-        <v>3500</v>
-      </c>
       <c r="O13" t="s">
         <v>56</v>
       </c>
@@ -2622,10 +2619,7 @@
         <v>56</v>
       </c>
       <c r="R13" t="s">
-        <v>57</v>
-      </c>
-      <c r="S13">
-        <v>15803</v>
+        <v>68</v>
       </c>
       <c r="T13" t="s">
         <v>58</v>
@@ -2634,22 +2628,22 @@
         <v>59</v>
       </c>
       <c r="V13" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="W13" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="X13">
-        <v>2103512</v>
+        <v>2104094</v>
       </c>
       <c r="Y13" s="1">
-        <v>45338</v>
+        <v>45342</v>
       </c>
       <c r="Z13" t="s">
         <v>56</v>
       </c>
       <c r="AA13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB13" t="s">
         <v>56</v>
@@ -2663,26 +2657,17 @@
       <c r="AF13" t="s">
         <v>56</v>
       </c>
-      <c r="AG13">
-        <v>1</v>
-      </c>
       <c r="AH13" t="s">
         <v>56</v>
       </c>
-      <c r="AI13">
-        <v>54000888</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>74</v>
-      </c>
-      <c r="AL13">
-        <v>535330293037</v>
+      <c r="AL13" t="s">
+        <v>56</v>
       </c>
       <c r="AM13" s="1">
         <v>45338</v>
       </c>
       <c r="AN13" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="AO13" t="s">
         <v>63</v>
@@ -2694,7 +2679,7 @@
         <v>64</v>
       </c>
       <c r="AR13" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="AU13" t="s">
         <v>56</v>
@@ -2702,8 +2687,8 @@
       <c r="AV13" t="s">
         <v>65</v>
       </c>
-      <c r="AX13">
-        <v>24001206</v>
+      <c r="AX13" t="s">
+        <v>56</v>
       </c>
       <c r="AY13">
         <v>920410</v>
@@ -2713,68 +2698,452 @@
       </c>
     </row>
     <row r="14" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14">
+        <v>24001581</v>
+      </c>
+      <c r="D14">
+        <v>1201</v>
+      </c>
+      <c r="E14" s="1">
+        <v>45338</v>
+      </c>
       <c r="F14" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G14">
-        <v>452.47</v>
+        <v>0.22</v>
       </c>
       <c r="H14">
-        <v>452.47</v>
+        <v>0.22</v>
+      </c>
+      <c r="I14" t="s">
+        <v>55</v>
+      </c>
+      <c r="J14" t="s">
+        <v>55</v>
       </c>
       <c r="L14" s="2">
-        <v>137033.29999999999</v>
+        <v>3500</v>
       </c>
       <c r="N14" s="2">
-        <v>137033.29999999999</v>
+        <v>3500</v>
+      </c>
+      <c r="O14" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>56</v>
+      </c>
+      <c r="R14" t="s">
+        <v>57</v>
+      </c>
+      <c r="S14">
+        <v>15803</v>
+      </c>
+      <c r="T14" t="s">
+        <v>58</v>
+      </c>
+      <c r="U14" t="s">
+        <v>59</v>
+      </c>
+      <c r="V14" t="s">
+        <v>75</v>
+      </c>
+      <c r="W14" t="s">
+        <v>76</v>
+      </c>
+      <c r="X14">
+        <v>2103512</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>45338</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA14">
+        <v>2</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>56</v>
       </c>
       <c r="AG14">
         <v>1</v>
       </c>
+      <c r="AH14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI14">
+        <v>54000888</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL14">
+        <v>535330293037</v>
+      </c>
+      <c r="AM14" s="1">
+        <v>45338</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP14">
+        <v>1201</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX14">
+        <v>24001206</v>
+      </c>
+      <c r="AY14">
+        <v>920410</v>
+      </c>
+      <c r="AZ14">
+        <v>1201.9204099999999</v>
+      </c>
     </row>
     <row r="15" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15">
+        <v>24001228</v>
+      </c>
+      <c r="D15">
+        <v>1201</v>
+      </c>
+      <c r="E15" s="1">
+        <v>45342</v>
+      </c>
       <c r="F15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G15">
-        <v>452.47</v>
+        <v>1.9</v>
       </c>
       <c r="H15">
-        <v>452.47</v>
+        <v>1.9</v>
+      </c>
+      <c r="I15" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15" t="s">
+        <v>55</v>
       </c>
       <c r="L15" s="2">
-        <v>137033.29999999999</v>
+        <v>30000</v>
       </c>
       <c r="N15" s="2">
-        <v>137033.29999999999</v>
-      </c>
-      <c r="AG15">
+        <v>30000</v>
+      </c>
+      <c r="O15" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>56</v>
+      </c>
+      <c r="R15" t="s">
+        <v>57</v>
+      </c>
+      <c r="S15">
+        <v>15803</v>
+      </c>
+      <c r="T15" t="s">
+        <v>58</v>
+      </c>
+      <c r="U15" t="s">
+        <v>59</v>
+      </c>
+      <c r="V15" t="s">
+        <v>60</v>
+      </c>
+      <c r="W15" t="s">
+        <v>61</v>
+      </c>
+      <c r="X15">
+        <v>2104840</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>45344</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA15">
         <v>1</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM15" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP15">
+        <v>1201</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY15">
+        <v>920410</v>
+      </c>
+      <c r="AZ15">
+        <v>1201.9204099999999</v>
       </c>
     </row>
     <row r="16" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16">
+        <v>24001229</v>
+      </c>
+      <c r="D16">
+        <v>1201</v>
+      </c>
+      <c r="E16" s="1">
+        <v>45343</v>
+      </c>
       <c r="F16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16">
+        <v>3.16</v>
+      </c>
+      <c r="H16">
+        <v>3.16</v>
+      </c>
+      <c r="I16" t="s">
+        <v>55</v>
+      </c>
+      <c r="J16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L16" s="2">
+        <v>50000</v>
+      </c>
+      <c r="N16" s="2">
+        <v>50000</v>
+      </c>
+      <c r="O16" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>56</v>
+      </c>
+      <c r="R16" t="s">
+        <v>57</v>
+      </c>
+      <c r="S16">
+        <v>15803</v>
+      </c>
+      <c r="T16" t="s">
+        <v>58</v>
+      </c>
+      <c r="U16" t="s">
+        <v>59</v>
+      </c>
+      <c r="V16" t="s">
+        <v>60</v>
+      </c>
+      <c r="W16" t="s">
+        <v>61</v>
+      </c>
+      <c r="X16">
+        <v>2104840</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>45344</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA16">
+        <v>1</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM16" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP16">
+        <v>1201</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY16">
+        <v>920410</v>
+      </c>
+      <c r="AZ16">
+        <v>1201.9204099999999</v>
+      </c>
+    </row>
+    <row r="17" spans="6:33" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
         <v>81</v>
       </c>
-      <c r="G16">
-        <v>452.47</v>
-      </c>
-      <c r="H16">
-        <v>452.47</v>
-      </c>
-      <c r="L16" s="2">
-        <v>137033.29999999999</v>
-      </c>
-      <c r="N16" s="2">
-        <v>137033.29999999999</v>
-      </c>
-      <c r="AG16">
+      <c r="G17">
+        <v>680.2</v>
+      </c>
+      <c r="H17">
+        <v>680.2</v>
+      </c>
+      <c r="L17" s="2">
+        <v>217033.3</v>
+      </c>
+      <c r="N17" s="2">
+        <v>217033.3</v>
+      </c>
+      <c r="AG17">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F17" t="s">
+    <row r="18" spans="6:33" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
         <v>82</v>
+      </c>
+      <c r="G18">
+        <v>680.2</v>
+      </c>
+      <c r="H18">
+        <v>680.2</v>
+      </c>
+      <c r="L18" s="2">
+        <v>217033.3</v>
+      </c>
+      <c r="N18" s="2">
+        <v>217033.3</v>
+      </c>
+      <c r="AG18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="6:33" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>83</v>
+      </c>
+      <c r="G19">
+        <v>680.2</v>
+      </c>
+      <c r="H19">
+        <v>680.2</v>
+      </c>
+      <c r="L19" s="2">
+        <v>217033.3</v>
+      </c>
+      <c r="N19" s="2">
+        <v>217033.3</v>
+      </c>
+      <c r="AG19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="6:33" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/PROJECTS MACRO/Profit Loss/Tarikan JDE/1201.920410.xlsx
+++ b/PROJECTS MACRO/Profit Loss/Tarikan JDE/1201.920410.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\Tarikan JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD45E9AE-67F1-4D92-BD54-D89F63893683}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AFCD975-8524-4C28-809D-DAD67B7CE295}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1 - 2024-02-24T063211.921" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1 - 2024-03-03T063355.755" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="92">
   <si>
     <t>Do Ty</t>
   </si>
@@ -235,6 +235,12 @@
     <t>BANK CHARGES</t>
   </si>
   <si>
+    <t>Bank charges</t>
+  </si>
+  <si>
+    <t>RPA2</t>
+  </si>
+  <si>
     <t>KEURANGAN BANK CHARGE OBOR</t>
   </si>
   <si>
@@ -259,10 +265,25 @@
     <t>ADMIN</t>
   </si>
   <si>
+    <t>E038176002 HANDLING FEE</t>
+  </si>
+  <si>
     <t>MONTHLY ADMIN FEE</t>
   </si>
   <si>
     <t>ND - LAINNYA BY AUDITOR</t>
+  </si>
+  <si>
+    <t>WITHHOLDING TAX</t>
+  </si>
+  <si>
+    <t>BIAYA ADM</t>
+  </si>
+  <si>
+    <t>PAJAK BUNGA</t>
+  </si>
+  <si>
+    <t>BUNGA</t>
   </si>
   <si>
     <t>Column Total</t>
@@ -1117,7 +1138,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ20"/>
+  <dimension ref="A1:AZ47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2003,35 +2024,26 @@
         <v>53</v>
       </c>
       <c r="C8">
-        <v>24001183</v>
+        <v>24001251</v>
       </c>
       <c r="D8">
         <v>1201</v>
       </c>
       <c r="E8" s="1">
-        <v>45329</v>
+        <v>45328</v>
       </c>
       <c r="F8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G8">
-        <v>0.63</v>
+        <v>29.29</v>
       </c>
       <c r="H8">
-        <v>0.63</v>
+        <v>29.29</v>
       </c>
       <c r="I8" t="s">
         <v>55</v>
       </c>
-      <c r="J8" t="s">
-        <v>55</v>
-      </c>
-      <c r="L8" s="2">
-        <v>10000</v>
-      </c>
-      <c r="N8" s="2">
-        <v>10000</v>
-      </c>
       <c r="O8" t="s">
         <v>56</v>
       </c>
@@ -2039,10 +2051,7 @@
         <v>56</v>
       </c>
       <c r="R8" t="s">
-        <v>57</v>
-      </c>
-      <c r="S8">
-        <v>15803</v>
+        <v>68</v>
       </c>
       <c r="T8" t="s">
         <v>58</v>
@@ -2057,10 +2066,10 @@
         <v>61</v>
       </c>
       <c r="X8">
-        <v>2101573</v>
+        <v>2106680</v>
       </c>
       <c r="Y8" s="1">
-        <v>45335</v>
+        <v>45352</v>
       </c>
       <c r="Z8" t="s">
         <v>56</v>
@@ -2087,10 +2096,10 @@
         <v>56</v>
       </c>
       <c r="AM8" s="1">
-        <v>45329</v>
+        <v>45328</v>
       </c>
       <c r="AN8" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="AO8" t="s">
         <v>63</v>
@@ -2128,7 +2137,7 @@
         <v>53</v>
       </c>
       <c r="C9">
-        <v>24001202</v>
+        <v>24001183</v>
       </c>
       <c r="D9">
         <v>1201</v>
@@ -2140,14 +2149,23 @@
         <v>70</v>
       </c>
       <c r="G9">
-        <v>75</v>
+        <v>0.63</v>
       </c>
       <c r="H9">
-        <v>75</v>
+        <v>0.63</v>
       </c>
       <c r="I9" t="s">
         <v>55</v>
       </c>
+      <c r="J9" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" s="2">
+        <v>10000</v>
+      </c>
+      <c r="N9" s="2">
+        <v>10000</v>
+      </c>
       <c r="O9" t="s">
         <v>56</v>
       </c>
@@ -2155,7 +2173,10 @@
         <v>56</v>
       </c>
       <c r="R9" t="s">
-        <v>68</v>
+        <v>57</v>
+      </c>
+      <c r="S9">
+        <v>15803</v>
       </c>
       <c r="T9" t="s">
         <v>58</v>
@@ -2170,10 +2191,10 @@
         <v>61</v>
       </c>
       <c r="X9">
-        <v>2102830</v>
+        <v>2101573</v>
       </c>
       <c r="Y9" s="1">
-        <v>45338</v>
+        <v>45335</v>
       </c>
       <c r="Z9" t="s">
         <v>56</v>
@@ -2203,7 +2224,7 @@
         <v>45329</v>
       </c>
       <c r="AN9" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="AO9" t="s">
         <v>63</v>
@@ -2241,7 +2262,7 @@
         <v>53</v>
       </c>
       <c r="C10">
-        <v>24001213</v>
+        <v>24001202</v>
       </c>
       <c r="D10">
         <v>1201</v>
@@ -2250,13 +2271,13 @@
         <v>45329</v>
       </c>
       <c r="F10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G10">
-        <v>37.5</v>
+        <v>75</v>
       </c>
       <c r="H10">
-        <v>37.5</v>
+        <v>75</v>
       </c>
       <c r="I10" t="s">
         <v>55</v>
@@ -2283,7 +2304,7 @@
         <v>61</v>
       </c>
       <c r="X10">
-        <v>2103058</v>
+        <v>2102830</v>
       </c>
       <c r="Y10" s="1">
         <v>45338</v>
@@ -2354,35 +2375,26 @@
         <v>53</v>
       </c>
       <c r="C11">
-        <v>24001193</v>
+        <v>24001213</v>
       </c>
       <c r="D11">
         <v>1201</v>
       </c>
       <c r="E11" s="1">
-        <v>45334</v>
+        <v>45329</v>
       </c>
       <c r="F11" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G11">
-        <v>0.18</v>
+        <v>37.5</v>
       </c>
       <c r="H11">
-        <v>0.18</v>
+        <v>37.5</v>
       </c>
       <c r="I11" t="s">
         <v>55</v>
       </c>
-      <c r="J11" t="s">
-        <v>55</v>
-      </c>
-      <c r="L11" s="2">
-        <v>2900</v>
-      </c>
-      <c r="N11" s="2">
-        <v>2900</v>
-      </c>
       <c r="O11" t="s">
         <v>56</v>
       </c>
@@ -2390,10 +2402,7 @@
         <v>56</v>
       </c>
       <c r="R11" t="s">
-        <v>57</v>
-      </c>
-      <c r="S11">
-        <v>15803</v>
+        <v>68</v>
       </c>
       <c r="T11" t="s">
         <v>58</v>
@@ -2408,10 +2417,10 @@
         <v>61</v>
       </c>
       <c r="X11">
-        <v>2101870</v>
+        <v>2103058</v>
       </c>
       <c r="Y11" s="1">
-        <v>45337</v>
+        <v>45338</v>
       </c>
       <c r="Z11" t="s">
         <v>56</v>
@@ -2438,10 +2447,10 @@
         <v>56</v>
       </c>
       <c r="AM11" s="1">
-        <v>45334</v>
+        <v>45329</v>
       </c>
       <c r="AN11" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="AO11" t="s">
         <v>63</v>
@@ -2479,22 +2488,22 @@
         <v>53</v>
       </c>
       <c r="C12">
-        <v>24001203</v>
+        <v>24001315</v>
       </c>
       <c r="D12">
         <v>1201</v>
       </c>
       <c r="E12" s="1">
-        <v>45334</v>
+        <v>45329</v>
       </c>
       <c r="F12" t="s">
         <v>70</v>
       </c>
       <c r="G12">
-        <v>280</v>
+        <v>0.16</v>
       </c>
       <c r="H12">
-        <v>280</v>
+        <v>0.16</v>
       </c>
       <c r="I12" t="s">
         <v>55</v>
@@ -2521,10 +2530,10 @@
         <v>61</v>
       </c>
       <c r="X12">
-        <v>2102830</v>
+        <v>2107245</v>
       </c>
       <c r="Y12" s="1">
-        <v>45338</v>
+        <v>45352</v>
       </c>
       <c r="Z12" t="s">
         <v>56</v>
@@ -2551,7 +2560,7 @@
         <v>56</v>
       </c>
       <c r="AM12" s="1">
-        <v>45334</v>
+        <v>45329</v>
       </c>
       <c r="AN12" t="s">
         <v>69</v>
@@ -2592,26 +2601,35 @@
         <v>53</v>
       </c>
       <c r="C13">
-        <v>24001225</v>
+        <v>24001193</v>
       </c>
       <c r="D13">
         <v>1201</v>
       </c>
       <c r="E13" s="1">
-        <v>45338</v>
+        <v>45334</v>
       </c>
       <c r="F13" t="s">
         <v>70</v>
       </c>
       <c r="G13">
-        <v>222.67</v>
+        <v>0.18</v>
       </c>
       <c r="H13">
-        <v>222.67</v>
+        <v>0.18</v>
       </c>
       <c r="I13" t="s">
         <v>55</v>
       </c>
+      <c r="J13" t="s">
+        <v>55</v>
+      </c>
+      <c r="L13" s="2">
+        <v>2900</v>
+      </c>
+      <c r="N13" s="2">
+        <v>2900</v>
+      </c>
       <c r="O13" t="s">
         <v>56</v>
       </c>
@@ -2619,7 +2637,10 @@
         <v>56</v>
       </c>
       <c r="R13" t="s">
-        <v>68</v>
+        <v>57</v>
+      </c>
+      <c r="S13">
+        <v>15803</v>
       </c>
       <c r="T13" t="s">
         <v>58</v>
@@ -2634,10 +2655,10 @@
         <v>61</v>
       </c>
       <c r="X13">
-        <v>2104094</v>
+        <v>2101870</v>
       </c>
       <c r="Y13" s="1">
-        <v>45342</v>
+        <v>45337</v>
       </c>
       <c r="Z13" t="s">
         <v>56</v>
@@ -2664,10 +2685,10 @@
         <v>56</v>
       </c>
       <c r="AM13" s="1">
-        <v>45338</v>
+        <v>45334</v>
       </c>
       <c r="AN13" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="AO13" t="s">
         <v>63</v>
@@ -2699,41 +2720,32 @@
     </row>
     <row r="14" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="C14">
-        <v>24001581</v>
+        <v>24001203</v>
       </c>
       <c r="D14">
         <v>1201</v>
       </c>
       <c r="E14" s="1">
-        <v>45338</v>
+        <v>45334</v>
       </c>
       <c r="F14" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G14">
-        <v>0.22</v>
+        <v>280</v>
       </c>
       <c r="H14">
-        <v>0.22</v>
+        <v>280</v>
       </c>
       <c r="I14" t="s">
         <v>55</v>
       </c>
-      <c r="J14" t="s">
-        <v>55</v>
-      </c>
-      <c r="L14" s="2">
-        <v>3500</v>
-      </c>
-      <c r="N14" s="2">
-        <v>3500</v>
-      </c>
       <c r="O14" t="s">
         <v>56</v>
       </c>
@@ -2741,10 +2753,7 @@
         <v>56</v>
       </c>
       <c r="R14" t="s">
-        <v>57</v>
-      </c>
-      <c r="S14">
-        <v>15803</v>
+        <v>68</v>
       </c>
       <c r="T14" t="s">
         <v>58</v>
@@ -2753,13 +2762,13 @@
         <v>59</v>
       </c>
       <c r="V14" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="W14" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="X14">
-        <v>2103512</v>
+        <v>2102830</v>
       </c>
       <c r="Y14" s="1">
         <v>45338</v>
@@ -2768,7 +2777,7 @@
         <v>56</v>
       </c>
       <c r="AA14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB14" t="s">
         <v>56</v>
@@ -2782,26 +2791,17 @@
       <c r="AF14" t="s">
         <v>56</v>
       </c>
-      <c r="AG14">
-        <v>1</v>
-      </c>
       <c r="AH14" t="s">
         <v>56</v>
       </c>
-      <c r="AI14">
-        <v>54000888</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>74</v>
-      </c>
-      <c r="AL14">
-        <v>535330293037</v>
+      <c r="AL14" t="s">
+        <v>56</v>
       </c>
       <c r="AM14" s="1">
-        <v>45338</v>
+        <v>45334</v>
       </c>
       <c r="AN14" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="AO14" t="s">
         <v>63</v>
@@ -2813,7 +2813,7 @@
         <v>64</v>
       </c>
       <c r="AR14" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="AU14" t="s">
         <v>56</v>
@@ -2821,8 +2821,8 @@
       <c r="AV14" t="s">
         <v>65</v>
       </c>
-      <c r="AX14">
-        <v>24001206</v>
+      <c r="AX14" t="s">
+        <v>56</v>
       </c>
       <c r="AY14">
         <v>920410</v>
@@ -2839,35 +2839,26 @@
         <v>53</v>
       </c>
       <c r="C15">
-        <v>24001228</v>
+        <v>24001248</v>
       </c>
       <c r="D15">
         <v>1201</v>
       </c>
       <c r="E15" s="1">
-        <v>45342</v>
+        <v>45334</v>
       </c>
       <c r="F15" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G15">
-        <v>1.9</v>
+        <v>35</v>
       </c>
       <c r="H15">
-        <v>1.9</v>
+        <v>35</v>
       </c>
       <c r="I15" t="s">
         <v>55</v>
       </c>
-      <c r="J15" t="s">
-        <v>55</v>
-      </c>
-      <c r="L15" s="2">
-        <v>30000</v>
-      </c>
-      <c r="N15" s="2">
-        <v>30000</v>
-      </c>
       <c r="O15" t="s">
         <v>56</v>
       </c>
@@ -2875,10 +2866,7 @@
         <v>56</v>
       </c>
       <c r="R15" t="s">
-        <v>57</v>
-      </c>
-      <c r="S15">
-        <v>15803</v>
+        <v>68</v>
       </c>
       <c r="T15" t="s">
         <v>58</v>
@@ -2893,10 +2881,10 @@
         <v>61</v>
       </c>
       <c r="X15">
-        <v>2104840</v>
+        <v>2106676</v>
       </c>
       <c r="Y15" s="1">
-        <v>45344</v>
+        <v>45352</v>
       </c>
       <c r="Z15" t="s">
         <v>56</v>
@@ -2923,10 +2911,10 @@
         <v>56</v>
       </c>
       <c r="AM15" s="1">
-        <v>45342</v>
+        <v>45334</v>
       </c>
       <c r="AN15" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="AO15" t="s">
         <v>63</v>
@@ -2964,35 +2952,26 @@
         <v>53</v>
       </c>
       <c r="C16">
-        <v>24001229</v>
+        <v>24001252</v>
       </c>
       <c r="D16">
         <v>1201</v>
       </c>
       <c r="E16" s="1">
-        <v>45343</v>
+        <v>45334</v>
       </c>
       <c r="F16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G16">
-        <v>3.16</v>
+        <v>20</v>
       </c>
       <c r="H16">
-        <v>3.16</v>
+        <v>20</v>
       </c>
       <c r="I16" t="s">
         <v>55</v>
       </c>
-      <c r="J16" t="s">
-        <v>55</v>
-      </c>
-      <c r="L16" s="2">
-        <v>50000</v>
-      </c>
-      <c r="N16" s="2">
-        <v>50000</v>
-      </c>
       <c r="O16" t="s">
         <v>56</v>
       </c>
@@ -3000,10 +2979,7 @@
         <v>56</v>
       </c>
       <c r="R16" t="s">
-        <v>57</v>
-      </c>
-      <c r="S16">
-        <v>15803</v>
+        <v>68</v>
       </c>
       <c r="T16" t="s">
         <v>58</v>
@@ -3018,10 +2994,10 @@
         <v>61</v>
       </c>
       <c r="X16">
-        <v>2104840</v>
+        <v>2106681</v>
       </c>
       <c r="Y16" s="1">
-        <v>45344</v>
+        <v>45352</v>
       </c>
       <c r="Z16" t="s">
         <v>56</v>
@@ -3048,10 +3024,10 @@
         <v>56</v>
       </c>
       <c r="AM16" s="1">
-        <v>45342</v>
+        <v>45334</v>
       </c>
       <c r="AN16" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="AO16" t="s">
         <v>63</v>
@@ -3063,7 +3039,7 @@
         <v>64</v>
       </c>
       <c r="AR16" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="AU16" t="s">
         <v>56</v>
@@ -3081,69 +3057,3288 @@
         <v>1201.9204099999999</v>
       </c>
     </row>
-    <row r="17" spans="6:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17">
+        <v>24001253</v>
+      </c>
+      <c r="D17">
+        <v>1201</v>
+      </c>
+      <c r="E17" s="1">
+        <v>45335</v>
+      </c>
       <c r="F17" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17">
+        <v>216.59</v>
+      </c>
+      <c r="H17">
+        <v>216.59</v>
+      </c>
+      <c r="I17" t="s">
+        <v>55</v>
+      </c>
+      <c r="O17" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>56</v>
+      </c>
+      <c r="R17" t="s">
+        <v>68</v>
+      </c>
+      <c r="T17" t="s">
+        <v>58</v>
+      </c>
+      <c r="U17" t="s">
+        <v>59</v>
+      </c>
+      <c r="V17" t="s">
+        <v>60</v>
+      </c>
+      <c r="W17" t="s">
+        <v>61</v>
+      </c>
+      <c r="X17">
+        <v>2106682</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>45352</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA17">
+        <v>1</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM17" s="1">
+        <v>45335</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP17">
+        <v>1201</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY17">
+        <v>920410</v>
+      </c>
+      <c r="AZ17">
+        <v>1201.9204099999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18">
+        <v>24001254</v>
+      </c>
+      <c r="D18">
+        <v>1201</v>
+      </c>
+      <c r="E18" s="1">
+        <v>45337</v>
+      </c>
+      <c r="F18" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18">
+        <v>20</v>
+      </c>
+      <c r="H18">
+        <v>20</v>
+      </c>
+      <c r="I18" t="s">
+        <v>55</v>
+      </c>
+      <c r="O18" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>56</v>
+      </c>
+      <c r="R18" t="s">
+        <v>68</v>
+      </c>
+      <c r="T18" t="s">
+        <v>58</v>
+      </c>
+      <c r="U18" t="s">
+        <v>59</v>
+      </c>
+      <c r="V18" t="s">
+        <v>60</v>
+      </c>
+      <c r="W18" t="s">
+        <v>61</v>
+      </c>
+      <c r="X18">
+        <v>2106683</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>45352</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA18">
+        <v>1</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM18" s="1">
+        <v>45337</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP18">
+        <v>1201</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY18">
+        <v>920410</v>
+      </c>
+      <c r="AZ18">
+        <v>1201.9204099999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19">
+        <v>24001225</v>
+      </c>
+      <c r="D19">
+        <v>1201</v>
+      </c>
+      <c r="E19" s="1">
+        <v>45338</v>
+      </c>
+      <c r="F19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19">
+        <v>222.67</v>
+      </c>
+      <c r="H19">
+        <v>222.67</v>
+      </c>
+      <c r="I19" t="s">
+        <v>55</v>
+      </c>
+      <c r="O19" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>56</v>
+      </c>
+      <c r="R19" t="s">
+        <v>68</v>
+      </c>
+      <c r="T19" t="s">
+        <v>58</v>
+      </c>
+      <c r="U19" t="s">
+        <v>59</v>
+      </c>
+      <c r="V19" t="s">
+        <v>60</v>
+      </c>
+      <c r="W19" t="s">
+        <v>61</v>
+      </c>
+      <c r="X19">
+        <v>2104094</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA19">
+        <v>1</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM19" s="1">
+        <v>45338</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP19">
+        <v>1201</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV19" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY19">
+        <v>920410</v>
+      </c>
+      <c r="AZ19">
+        <v>1201.9204099999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20">
+        <v>24001581</v>
+      </c>
+      <c r="D20">
+        <v>1201</v>
+      </c>
+      <c r="E20" s="1">
+        <v>45338</v>
+      </c>
+      <c r="F20" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20">
+        <v>0.22</v>
+      </c>
+      <c r="H20">
+        <v>0.22</v>
+      </c>
+      <c r="I20" t="s">
+        <v>55</v>
+      </c>
+      <c r="J20" t="s">
+        <v>55</v>
+      </c>
+      <c r="L20" s="2">
+        <v>3500</v>
+      </c>
+      <c r="N20" s="2">
+        <v>3500</v>
+      </c>
+      <c r="O20" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>56</v>
+      </c>
+      <c r="R20" t="s">
+        <v>57</v>
+      </c>
+      <c r="S20">
+        <v>15803</v>
+      </c>
+      <c r="T20" t="s">
+        <v>58</v>
+      </c>
+      <c r="U20" t="s">
+        <v>59</v>
+      </c>
+      <c r="V20" t="s">
+        <v>77</v>
+      </c>
+      <c r="W20" t="s">
+        <v>78</v>
+      </c>
+      <c r="X20">
+        <v>2103512</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>45338</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA20">
+        <v>2</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG20">
+        <v>1</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI20">
+        <v>54000888</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL20">
+        <v>535330293037</v>
+      </c>
+      <c r="AM20" s="1">
+        <v>45338</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP20">
+        <v>1201</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV20" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX20">
+        <v>24001206</v>
+      </c>
+      <c r="AY20">
+        <v>920410</v>
+      </c>
+      <c r="AZ20">
+        <v>1201.9204099999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21">
+        <v>24001261</v>
+      </c>
+      <c r="D21">
+        <v>1201</v>
+      </c>
+      <c r="E21" s="1">
+        <v>45341</v>
+      </c>
+      <c r="F21" t="s">
         <v>81</v>
       </c>
-      <c r="G17">
-        <v>680.2</v>
-      </c>
-      <c r="H17">
-        <v>680.2</v>
-      </c>
-      <c r="L17" s="2">
-        <v>217033.3</v>
-      </c>
-      <c r="N17" s="2">
-        <v>217033.3</v>
-      </c>
-      <c r="AG17">
+      <c r="G21">
+        <v>110</v>
+      </c>
+      <c r="H21">
+        <v>110</v>
+      </c>
+      <c r="I21" t="s">
+        <v>55</v>
+      </c>
+      <c r="O21" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>56</v>
+      </c>
+      <c r="R21" t="s">
+        <v>68</v>
+      </c>
+      <c r="T21" t="s">
+        <v>58</v>
+      </c>
+      <c r="U21" t="s">
+        <v>59</v>
+      </c>
+      <c r="V21" t="s">
+        <v>60</v>
+      </c>
+      <c r="W21" t="s">
+        <v>61</v>
+      </c>
+      <c r="X21">
+        <v>2106695</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>45352</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA21">
         <v>1</v>
       </c>
+      <c r="AB21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM21" s="1">
+        <v>45341</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP21">
+        <v>1201</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV21" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY21">
+        <v>920410</v>
+      </c>
+      <c r="AZ21">
+        <v>1201.9204099999999</v>
+      </c>
     </row>
-    <row r="18" spans="6:33" x14ac:dyDescent="0.25">
-      <c r="F18" t="s">
+    <row r="22" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22">
+        <v>24001228</v>
+      </c>
+      <c r="D22">
+        <v>1201</v>
+      </c>
+      <c r="E22" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F22" t="s">
         <v>82</v>
       </c>
-      <c r="G18">
-        <v>680.2</v>
-      </c>
-      <c r="H18">
-        <v>680.2</v>
-      </c>
-      <c r="L18" s="2">
-        <v>217033.3</v>
-      </c>
-      <c r="N18" s="2">
-        <v>217033.3</v>
-      </c>
-      <c r="AG18">
+      <c r="G22">
+        <v>1.9</v>
+      </c>
+      <c r="H22">
+        <v>1.9</v>
+      </c>
+      <c r="I22" t="s">
+        <v>55</v>
+      </c>
+      <c r="J22" t="s">
+        <v>55</v>
+      </c>
+      <c r="L22" s="2">
+        <v>30000</v>
+      </c>
+      <c r="N22" s="2">
+        <v>30000</v>
+      </c>
+      <c r="O22" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>56</v>
+      </c>
+      <c r="R22" t="s">
+        <v>57</v>
+      </c>
+      <c r="S22">
+        <v>15803</v>
+      </c>
+      <c r="T22" t="s">
+        <v>58</v>
+      </c>
+      <c r="U22" t="s">
+        <v>59</v>
+      </c>
+      <c r="V22" t="s">
+        <v>60</v>
+      </c>
+      <c r="W22" t="s">
+        <v>61</v>
+      </c>
+      <c r="X22">
+        <v>2104840</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>45344</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA22">
         <v>1</v>
       </c>
+      <c r="AB22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM22" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP22">
+        <v>1201</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV22" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY22">
+        <v>920410</v>
+      </c>
+      <c r="AZ22">
+        <v>1201.9204099999999</v>
+      </c>
     </row>
-    <row r="19" spans="6:33" x14ac:dyDescent="0.25">
-      <c r="F19" t="s">
+    <row r="23" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23">
+        <v>24001243</v>
+      </c>
+      <c r="D23">
+        <v>1201</v>
+      </c>
+      <c r="E23" s="1">
+        <v>45342</v>
+      </c>
+      <c r="F23" t="s">
+        <v>82</v>
+      </c>
+      <c r="G23">
+        <v>5</v>
+      </c>
+      <c r="H23">
+        <v>5</v>
+      </c>
+      <c r="I23" t="s">
+        <v>55</v>
+      </c>
+      <c r="O23" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>56</v>
+      </c>
+      <c r="R23" t="s">
+        <v>68</v>
+      </c>
+      <c r="T23" t="s">
+        <v>58</v>
+      </c>
+      <c r="U23" t="s">
+        <v>59</v>
+      </c>
+      <c r="V23" t="s">
+        <v>60</v>
+      </c>
+      <c r="W23" t="s">
+        <v>61</v>
+      </c>
+      <c r="X23">
+        <v>2105975</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>45350</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA23">
+        <v>1</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM23" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP23">
+        <v>1201</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV23" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY23">
+        <v>920410</v>
+      </c>
+      <c r="AZ23">
+        <v>1201.9204099999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24">
+        <v>24001229</v>
+      </c>
+      <c r="D24">
+        <v>1201</v>
+      </c>
+      <c r="E24" s="1">
+        <v>45343</v>
+      </c>
+      <c r="F24" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24">
+        <v>3.16</v>
+      </c>
+      <c r="H24">
+        <v>3.16</v>
+      </c>
+      <c r="I24" t="s">
+        <v>55</v>
+      </c>
+      <c r="J24" t="s">
+        <v>55</v>
+      </c>
+      <c r="L24" s="2">
+        <v>50000</v>
+      </c>
+      <c r="N24" s="2">
+        <v>50000</v>
+      </c>
+      <c r="O24" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>56</v>
+      </c>
+      <c r="R24" t="s">
+        <v>57</v>
+      </c>
+      <c r="S24">
+        <v>15803</v>
+      </c>
+      <c r="T24" t="s">
+        <v>58</v>
+      </c>
+      <c r="U24" t="s">
+        <v>59</v>
+      </c>
+      <c r="V24" t="s">
+        <v>60</v>
+      </c>
+      <c r="W24" t="s">
+        <v>61</v>
+      </c>
+      <c r="X24">
+        <v>2104840</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>45344</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA24">
+        <v>1</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM24" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP24">
+        <v>1201</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR24" t="s">
         <v>83</v>
       </c>
-      <c r="G19">
-        <v>680.2</v>
-      </c>
-      <c r="H19">
-        <v>680.2</v>
-      </c>
-      <c r="L19" s="2">
-        <v>217033.3</v>
-      </c>
-      <c r="N19" s="2">
-        <v>217033.3</v>
-      </c>
-      <c r="AG19">
+      <c r="AU24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV24" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY24">
+        <v>920410</v>
+      </c>
+      <c r="AZ24">
+        <v>1201.9204099999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25">
+        <v>24001255</v>
+      </c>
+      <c r="D25">
+        <v>1201</v>
+      </c>
+      <c r="E25" s="1">
+        <v>45343</v>
+      </c>
+      <c r="F25" t="s">
+        <v>71</v>
+      </c>
+      <c r="G25">
+        <v>39.82</v>
+      </c>
+      <c r="H25">
+        <v>39.82</v>
+      </c>
+      <c r="I25" t="s">
+        <v>55</v>
+      </c>
+      <c r="O25" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>56</v>
+      </c>
+      <c r="R25" t="s">
+        <v>68</v>
+      </c>
+      <c r="T25" t="s">
+        <v>58</v>
+      </c>
+      <c r="U25" t="s">
+        <v>59</v>
+      </c>
+      <c r="V25" t="s">
+        <v>60</v>
+      </c>
+      <c r="W25" t="s">
+        <v>61</v>
+      </c>
+      <c r="X25">
+        <v>2106684</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>45352</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA25">
         <v>1</v>
       </c>
+      <c r="AB25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM25" s="1">
+        <v>45343</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP25">
+        <v>1201</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV25" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY25">
+        <v>920410</v>
+      </c>
+      <c r="AZ25">
+        <v>1201.9204099999999</v>
+      </c>
     </row>
-    <row r="20" spans="6:33" x14ac:dyDescent="0.25">
-      <c r="F20" t="s">
+    <row r="26" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26">
+        <v>24001256</v>
+      </c>
+      <c r="D26">
+        <v>1201</v>
+      </c>
+      <c r="E26" s="1">
+        <v>45344</v>
+      </c>
+      <c r="F26" t="s">
+        <v>71</v>
+      </c>
+      <c r="G26">
+        <v>20</v>
+      </c>
+      <c r="H26">
+        <v>20</v>
+      </c>
+      <c r="I26" t="s">
+        <v>55</v>
+      </c>
+      <c r="O26" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>56</v>
+      </c>
+      <c r="R26" t="s">
+        <v>68</v>
+      </c>
+      <c r="T26" t="s">
+        <v>58</v>
+      </c>
+      <c r="U26" t="s">
+        <v>59</v>
+      </c>
+      <c r="V26" t="s">
+        <v>60</v>
+      </c>
+      <c r="W26" t="s">
+        <v>61</v>
+      </c>
+      <c r="X26">
+        <v>2106685</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>45352</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA26">
+        <v>1</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM26" s="1">
+        <v>45344</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP26">
+        <v>1201</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV26" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY26">
+        <v>920410</v>
+      </c>
+      <c r="AZ26">
+        <v>1201.9204099999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27">
+        <v>24001244</v>
+      </c>
+      <c r="D27">
+        <v>1201</v>
+      </c>
+      <c r="E27" s="1">
+        <v>45345</v>
+      </c>
+      <c r="F27" t="s">
+        <v>70</v>
+      </c>
+      <c r="G27">
+        <v>243.05</v>
+      </c>
+      <c r="H27">
+        <v>243.05</v>
+      </c>
+      <c r="I27" t="s">
+        <v>55</v>
+      </c>
+      <c r="O27" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>56</v>
+      </c>
+      <c r="R27" t="s">
+        <v>68</v>
+      </c>
+      <c r="T27" t="s">
+        <v>58</v>
+      </c>
+      <c r="U27" t="s">
+        <v>59</v>
+      </c>
+      <c r="V27" t="s">
+        <v>60</v>
+      </c>
+      <c r="W27" t="s">
+        <v>61</v>
+      </c>
+      <c r="X27">
+        <v>2105975</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>45350</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA27">
+        <v>1</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM27" s="1">
+        <v>45345</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP27">
+        <v>1201</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR27" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU27" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV27" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX27" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY27">
+        <v>920410</v>
+      </c>
+      <c r="AZ27">
+        <v>1201.9204099999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28">
+        <v>24001246</v>
+      </c>
+      <c r="D28">
+        <v>1201</v>
+      </c>
+      <c r="E28" s="1">
+        <v>45345</v>
+      </c>
+      <c r="F28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G28">
+        <v>80</v>
+      </c>
+      <c r="H28">
+        <v>80</v>
+      </c>
+      <c r="I28" t="s">
+        <v>55</v>
+      </c>
+      <c r="O28" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>56</v>
+      </c>
+      <c r="R28" t="s">
+        <v>68</v>
+      </c>
+      <c r="T28" t="s">
+        <v>58</v>
+      </c>
+      <c r="U28" t="s">
+        <v>59</v>
+      </c>
+      <c r="V28" t="s">
+        <v>60</v>
+      </c>
+      <c r="W28" t="s">
+        <v>61</v>
+      </c>
+      <c r="X28">
+        <v>2105975</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>45350</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA28">
+        <v>1</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM28" s="1">
+        <v>45345</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP28">
+        <v>1201</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR28" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU28" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV28" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX28" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY28">
+        <v>920410</v>
+      </c>
+      <c r="AZ28">
+        <v>1201.9204099999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29">
+        <v>24001249</v>
+      </c>
+      <c r="D29">
+        <v>1201</v>
+      </c>
+      <c r="E29" s="1">
+        <v>45345</v>
+      </c>
+      <c r="F29" t="s">
+        <v>71</v>
+      </c>
+      <c r="G29">
+        <v>35</v>
+      </c>
+      <c r="H29">
+        <v>35</v>
+      </c>
+      <c r="I29" t="s">
+        <v>55</v>
+      </c>
+      <c r="O29" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>56</v>
+      </c>
+      <c r="R29" t="s">
+        <v>68</v>
+      </c>
+      <c r="T29" t="s">
+        <v>58</v>
+      </c>
+      <c r="U29" t="s">
+        <v>59</v>
+      </c>
+      <c r="V29" t="s">
+        <v>60</v>
+      </c>
+      <c r="W29" t="s">
+        <v>61</v>
+      </c>
+      <c r="X29">
+        <v>2106677</v>
+      </c>
+      <c r="Y29" s="1">
+        <v>45352</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA29">
+        <v>1</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM29" s="1">
+        <v>45345</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO29" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP29">
+        <v>1201</v>
+      </c>
+      <c r="AQ29" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV29" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY29">
+        <v>920410</v>
+      </c>
+      <c r="AZ29">
+        <v>1201.9204099999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30">
+        <v>24001257</v>
+      </c>
+      <c r="D30">
+        <v>1201</v>
+      </c>
+      <c r="E30" s="1">
+        <v>45349</v>
+      </c>
+      <c r="F30" t="s">
+        <v>71</v>
+      </c>
+      <c r="G30">
+        <v>21.64</v>
+      </c>
+      <c r="H30">
+        <v>21.64</v>
+      </c>
+      <c r="I30" t="s">
+        <v>55</v>
+      </c>
+      <c r="O30" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>56</v>
+      </c>
+      <c r="R30" t="s">
+        <v>68</v>
+      </c>
+      <c r="T30" t="s">
+        <v>58</v>
+      </c>
+      <c r="U30" t="s">
+        <v>59</v>
+      </c>
+      <c r="V30" t="s">
+        <v>60</v>
+      </c>
+      <c r="W30" t="s">
+        <v>61</v>
+      </c>
+      <c r="X30">
+        <v>2106690</v>
+      </c>
+      <c r="Y30" s="1">
+        <v>45352</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA30">
+        <v>1</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM30" s="1">
+        <v>45349</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO30" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP30">
+        <v>1201</v>
+      </c>
+      <c r="AQ30" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR30" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU30" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV30" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX30" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY30">
+        <v>920410</v>
+      </c>
+      <c r="AZ30">
+        <v>1201.9204099999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31">
+        <v>24001277</v>
+      </c>
+      <c r="D31">
+        <v>1201</v>
+      </c>
+      <c r="E31" s="1">
+        <v>45351</v>
+      </c>
+      <c r="F31" t="s">
         <v>84</v>
+      </c>
+      <c r="G31">
+        <v>1.59</v>
+      </c>
+      <c r="H31">
+        <v>1.59</v>
+      </c>
+      <c r="I31" t="s">
+        <v>55</v>
+      </c>
+      <c r="O31" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>56</v>
+      </c>
+      <c r="R31" t="s">
+        <v>68</v>
+      </c>
+      <c r="T31" t="s">
+        <v>58</v>
+      </c>
+      <c r="U31" t="s">
+        <v>59</v>
+      </c>
+      <c r="V31" t="s">
+        <v>60</v>
+      </c>
+      <c r="W31" t="s">
+        <v>61</v>
+      </c>
+      <c r="X31">
+        <v>2106727</v>
+      </c>
+      <c r="Y31" s="1">
+        <v>45352</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA31">
+        <v>1</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM31" s="1">
+        <v>45351</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP31">
+        <v>1201</v>
+      </c>
+      <c r="AQ31" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR31" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU31" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV31" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX31" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY31">
+        <v>920410</v>
+      </c>
+      <c r="AZ31">
+        <v>1201.9204099999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32">
+        <v>24001279</v>
+      </c>
+      <c r="D32">
+        <v>1201</v>
+      </c>
+      <c r="E32" s="1">
+        <v>45351</v>
+      </c>
+      <c r="F32" t="s">
+        <v>70</v>
+      </c>
+      <c r="G32">
+        <v>35</v>
+      </c>
+      <c r="H32">
+        <v>35</v>
+      </c>
+      <c r="I32" t="s">
+        <v>55</v>
+      </c>
+      <c r="O32" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>56</v>
+      </c>
+      <c r="R32" t="s">
+        <v>68</v>
+      </c>
+      <c r="T32" t="s">
+        <v>58</v>
+      </c>
+      <c r="U32" t="s">
+        <v>59</v>
+      </c>
+      <c r="V32" t="s">
+        <v>60</v>
+      </c>
+      <c r="W32" t="s">
+        <v>61</v>
+      </c>
+      <c r="X32">
+        <v>2106727</v>
+      </c>
+      <c r="Y32" s="1">
+        <v>45352</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA32">
+        <v>1</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM32" s="1">
+        <v>45351</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP32">
+        <v>1201</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU32" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV32" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX32" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY32">
+        <v>920410</v>
+      </c>
+      <c r="AZ32">
+        <v>1201.9204099999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33">
+        <v>24001282</v>
+      </c>
+      <c r="D33">
+        <v>1201</v>
+      </c>
+      <c r="E33" s="1">
+        <v>45351</v>
+      </c>
+      <c r="F33" t="s">
+        <v>85</v>
+      </c>
+      <c r="G33">
+        <v>5</v>
+      </c>
+      <c r="H33">
+        <v>5</v>
+      </c>
+      <c r="I33" t="s">
+        <v>55</v>
+      </c>
+      <c r="O33" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>56</v>
+      </c>
+      <c r="R33" t="s">
+        <v>68</v>
+      </c>
+      <c r="T33" t="s">
+        <v>58</v>
+      </c>
+      <c r="U33" t="s">
+        <v>59</v>
+      </c>
+      <c r="V33" t="s">
+        <v>60</v>
+      </c>
+      <c r="W33" t="s">
+        <v>61</v>
+      </c>
+      <c r="X33">
+        <v>2107123</v>
+      </c>
+      <c r="Y33" s="1">
+        <v>45352</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA33">
+        <v>1</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM33" s="1">
+        <v>45351</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP33">
+        <v>1201</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR33" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU33" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV33" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX33" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY33">
+        <v>920410</v>
+      </c>
+      <c r="AZ33">
+        <v>1201.9204099999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34">
+        <v>24001284</v>
+      </c>
+      <c r="D34">
+        <v>1201</v>
+      </c>
+      <c r="E34" s="1">
+        <v>45351</v>
+      </c>
+      <c r="F34" t="s">
+        <v>86</v>
+      </c>
+      <c r="G34">
+        <v>0.08</v>
+      </c>
+      <c r="H34">
+        <v>0.08</v>
+      </c>
+      <c r="I34" t="s">
+        <v>55</v>
+      </c>
+      <c r="O34" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>56</v>
+      </c>
+      <c r="R34" t="s">
+        <v>68</v>
+      </c>
+      <c r="T34" t="s">
+        <v>58</v>
+      </c>
+      <c r="U34" t="s">
+        <v>59</v>
+      </c>
+      <c r="V34" t="s">
+        <v>60</v>
+      </c>
+      <c r="W34" t="s">
+        <v>61</v>
+      </c>
+      <c r="X34">
+        <v>2107123</v>
+      </c>
+      <c r="Y34" s="1">
+        <v>45352</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA34">
+        <v>1</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM34" s="1">
+        <v>45351</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO34" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP34">
+        <v>1201</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR34" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU34" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV34" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX34" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY34">
+        <v>920410</v>
+      </c>
+      <c r="AZ34">
+        <v>1201.9204099999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35">
+        <v>24001298</v>
+      </c>
+      <c r="D35">
+        <v>1201</v>
+      </c>
+      <c r="E35" s="1">
+        <v>45351</v>
+      </c>
+      <c r="F35" t="s">
+        <v>84</v>
+      </c>
+      <c r="G35">
+        <v>-3.54</v>
+      </c>
+      <c r="I35" t="s">
+        <v>55</v>
+      </c>
+      <c r="J35" t="s">
+        <v>55</v>
+      </c>
+      <c r="K35">
+        <v>-3.54</v>
+      </c>
+      <c r="M35" s="2">
+        <v>-55951.89</v>
+      </c>
+      <c r="N35" s="2">
+        <v>-55951.89</v>
+      </c>
+      <c r="O35" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>56</v>
+      </c>
+      <c r="R35" t="s">
+        <v>57</v>
+      </c>
+      <c r="S35">
+        <v>15803</v>
+      </c>
+      <c r="T35" t="s">
+        <v>58</v>
+      </c>
+      <c r="U35" t="s">
+        <v>59</v>
+      </c>
+      <c r="V35" t="s">
+        <v>60</v>
+      </c>
+      <c r="W35" t="s">
+        <v>61</v>
+      </c>
+      <c r="X35">
+        <v>2107125</v>
+      </c>
+      <c r="Y35" s="1">
+        <v>45352</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA35">
+        <v>3</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM35" s="1">
+        <v>45350</v>
+      </c>
+      <c r="AN35" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO35" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP35">
+        <v>1201</v>
+      </c>
+      <c r="AQ35" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR35" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT35" s="1">
+        <v>45351</v>
+      </c>
+      <c r="AU35" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV35" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX35" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY35">
+        <v>920410</v>
+      </c>
+      <c r="AZ35">
+        <v>1201.9204099999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36">
+        <v>24001298</v>
+      </c>
+      <c r="D36">
+        <v>1201</v>
+      </c>
+      <c r="E36" s="1">
+        <v>45351</v>
+      </c>
+      <c r="F36" t="s">
+        <v>84</v>
+      </c>
+      <c r="G36">
+        <v>3.54</v>
+      </c>
+      <c r="H36">
+        <v>3.54</v>
+      </c>
+      <c r="I36" t="s">
+        <v>55</v>
+      </c>
+      <c r="J36" t="s">
+        <v>55</v>
+      </c>
+      <c r="L36" s="2">
+        <v>55951.89</v>
+      </c>
+      <c r="N36" s="2">
+        <v>55951.89</v>
+      </c>
+      <c r="O36" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>56</v>
+      </c>
+      <c r="R36" t="s">
+        <v>57</v>
+      </c>
+      <c r="S36">
+        <v>15803</v>
+      </c>
+      <c r="T36" t="s">
+        <v>58</v>
+      </c>
+      <c r="U36" t="s">
+        <v>59</v>
+      </c>
+      <c r="V36" t="s">
+        <v>60</v>
+      </c>
+      <c r="W36" t="s">
+        <v>61</v>
+      </c>
+      <c r="X36">
+        <v>2107125</v>
+      </c>
+      <c r="Y36" s="1">
+        <v>45352</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA36">
+        <v>1</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL36" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM36" s="1">
+        <v>45350</v>
+      </c>
+      <c r="AN36" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO36" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP36">
+        <v>1201</v>
+      </c>
+      <c r="AQ36" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR36" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU36" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV36" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX36" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY36">
+        <v>920410</v>
+      </c>
+      <c r="AZ36">
+        <v>1201.9204099999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37">
+        <v>24001310</v>
+      </c>
+      <c r="D37">
+        <v>1201</v>
+      </c>
+      <c r="E37" s="1">
+        <v>45351</v>
+      </c>
+      <c r="F37" t="s">
+        <v>84</v>
+      </c>
+      <c r="G37">
+        <v>3.57</v>
+      </c>
+      <c r="H37">
+        <v>3.57</v>
+      </c>
+      <c r="I37" t="s">
+        <v>55</v>
+      </c>
+      <c r="J37" t="s">
+        <v>55</v>
+      </c>
+      <c r="L37" s="2">
+        <v>55951.89</v>
+      </c>
+      <c r="N37" s="2">
+        <v>55951.89</v>
+      </c>
+      <c r="O37" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>56</v>
+      </c>
+      <c r="R37" t="s">
+        <v>57</v>
+      </c>
+      <c r="S37">
+        <v>15673</v>
+      </c>
+      <c r="T37" t="s">
+        <v>58</v>
+      </c>
+      <c r="U37" t="s">
+        <v>59</v>
+      </c>
+      <c r="V37" t="s">
+        <v>60</v>
+      </c>
+      <c r="W37" t="s">
+        <v>61</v>
+      </c>
+      <c r="X37">
+        <v>2107166</v>
+      </c>
+      <c r="Y37" s="1">
+        <v>45352</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA37">
+        <v>1</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM37" s="1">
+        <v>45351</v>
+      </c>
+      <c r="AN37" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO37" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP37">
+        <v>1201</v>
+      </c>
+      <c r="AQ37" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR37" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU37" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV37" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX37" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY37">
+        <v>920410</v>
+      </c>
+      <c r="AZ37">
+        <v>1201.9204099999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38">
+        <v>24001325</v>
+      </c>
+      <c r="D38">
+        <v>1201</v>
+      </c>
+      <c r="E38" s="1">
+        <v>45351</v>
+      </c>
+      <c r="F38" t="s">
+        <v>85</v>
+      </c>
+      <c r="G38">
+        <v>1.91</v>
+      </c>
+      <c r="H38">
+        <v>1.91</v>
+      </c>
+      <c r="I38" t="s">
+        <v>55</v>
+      </c>
+      <c r="J38" t="s">
+        <v>55</v>
+      </c>
+      <c r="L38" s="2">
+        <v>30000</v>
+      </c>
+      <c r="N38" s="2">
+        <v>30000</v>
+      </c>
+      <c r="O38" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>56</v>
+      </c>
+      <c r="R38" t="s">
+        <v>57</v>
+      </c>
+      <c r="S38">
+        <v>15673</v>
+      </c>
+      <c r="T38" t="s">
+        <v>58</v>
+      </c>
+      <c r="U38" t="s">
+        <v>59</v>
+      </c>
+      <c r="V38" t="s">
+        <v>60</v>
+      </c>
+      <c r="W38" t="s">
+        <v>61</v>
+      </c>
+      <c r="X38">
+        <v>2107259</v>
+      </c>
+      <c r="Y38" s="1">
+        <v>45352</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA38">
+        <v>1</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM38" s="1">
+        <v>45351</v>
+      </c>
+      <c r="AN38" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO38" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP38">
+        <v>1201</v>
+      </c>
+      <c r="AQ38" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV38" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY38">
+        <v>920410</v>
+      </c>
+      <c r="AZ38">
+        <v>1201.9204099999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39">
+        <v>24001327</v>
+      </c>
+      <c r="D39">
+        <v>1201</v>
+      </c>
+      <c r="E39" s="1">
+        <v>45351</v>
+      </c>
+      <c r="F39" t="s">
+        <v>86</v>
+      </c>
+      <c r="G39">
+        <v>1.78</v>
+      </c>
+      <c r="H39">
+        <v>1.78</v>
+      </c>
+      <c r="I39" t="s">
+        <v>55</v>
+      </c>
+      <c r="J39" t="s">
+        <v>55</v>
+      </c>
+      <c r="L39" s="2">
+        <v>27860.28</v>
+      </c>
+      <c r="N39" s="2">
+        <v>27860.28</v>
+      </c>
+      <c r="O39" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>56</v>
+      </c>
+      <c r="R39" t="s">
+        <v>57</v>
+      </c>
+      <c r="S39">
+        <v>15673</v>
+      </c>
+      <c r="T39" t="s">
+        <v>58</v>
+      </c>
+      <c r="U39" t="s">
+        <v>59</v>
+      </c>
+      <c r="V39" t="s">
+        <v>60</v>
+      </c>
+      <c r="W39" t="s">
+        <v>61</v>
+      </c>
+      <c r="X39">
+        <v>2107259</v>
+      </c>
+      <c r="Y39" s="1">
+        <v>45352</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA39">
+        <v>1</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM39" s="1">
+        <v>45351</v>
+      </c>
+      <c r="AN39" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO39" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP39">
+        <v>1201</v>
+      </c>
+      <c r="AQ39" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR39" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU39" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV39" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX39" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY39">
+        <v>920410</v>
+      </c>
+      <c r="AZ39">
+        <v>1201.9204099999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40">
+        <v>24001328</v>
+      </c>
+      <c r="D40">
+        <v>1201</v>
+      </c>
+      <c r="E40" s="1">
+        <v>45351</v>
+      </c>
+      <c r="F40" t="s">
+        <v>85</v>
+      </c>
+      <c r="G40">
+        <v>1.91</v>
+      </c>
+      <c r="H40">
+        <v>1.91</v>
+      </c>
+      <c r="I40" t="s">
+        <v>55</v>
+      </c>
+      <c r="J40" t="s">
+        <v>55</v>
+      </c>
+      <c r="L40" s="2">
+        <v>30000</v>
+      </c>
+      <c r="N40" s="2">
+        <v>30000</v>
+      </c>
+      <c r="O40" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>56</v>
+      </c>
+      <c r="R40" t="s">
+        <v>57</v>
+      </c>
+      <c r="S40">
+        <v>15673</v>
+      </c>
+      <c r="T40" t="s">
+        <v>58</v>
+      </c>
+      <c r="U40" t="s">
+        <v>59</v>
+      </c>
+      <c r="V40" t="s">
+        <v>60</v>
+      </c>
+      <c r="W40" t="s">
+        <v>61</v>
+      </c>
+      <c r="X40">
+        <v>2107265</v>
+      </c>
+      <c r="Y40" s="1">
+        <v>45352</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA40">
+        <v>1</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL40" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM40" s="1">
+        <v>45351</v>
+      </c>
+      <c r="AN40" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO40" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP40">
+        <v>1201</v>
+      </c>
+      <c r="AQ40" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR40" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU40" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV40" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX40" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY40">
+        <v>920410</v>
+      </c>
+      <c r="AZ40">
+        <v>1201.9204099999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41">
+        <v>24001331</v>
+      </c>
+      <c r="D41">
+        <v>1201</v>
+      </c>
+      <c r="E41" s="1">
+        <v>45351</v>
+      </c>
+      <c r="F41" t="s">
+        <v>85</v>
+      </c>
+      <c r="G41">
+        <v>1.6</v>
+      </c>
+      <c r="H41">
+        <v>1.6</v>
+      </c>
+      <c r="I41" t="s">
+        <v>55</v>
+      </c>
+      <c r="J41" t="s">
+        <v>55</v>
+      </c>
+      <c r="L41" s="2">
+        <v>25000</v>
+      </c>
+      <c r="N41" s="2">
+        <v>25000</v>
+      </c>
+      <c r="O41" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>56</v>
+      </c>
+      <c r="R41" t="s">
+        <v>57</v>
+      </c>
+      <c r="S41">
+        <v>15673</v>
+      </c>
+      <c r="T41" t="s">
+        <v>58</v>
+      </c>
+      <c r="U41" t="s">
+        <v>59</v>
+      </c>
+      <c r="V41" t="s">
+        <v>60</v>
+      </c>
+      <c r="W41" t="s">
+        <v>61</v>
+      </c>
+      <c r="X41">
+        <v>2107345</v>
+      </c>
+      <c r="Y41" s="1">
+        <v>45352</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA41">
+        <v>1</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM41" s="1">
+        <v>45351</v>
+      </c>
+      <c r="AN41" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO41" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP41">
+        <v>1201</v>
+      </c>
+      <c r="AQ41" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR41" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU41" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV41" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX41" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY41">
+        <v>920410</v>
+      </c>
+      <c r="AZ41">
+        <v>1201.9204099999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42">
+        <v>24001332</v>
+      </c>
+      <c r="D42">
+        <v>1201</v>
+      </c>
+      <c r="E42" s="1">
+        <v>45351</v>
+      </c>
+      <c r="F42" t="s">
+        <v>87</v>
+      </c>
+      <c r="G42">
+        <v>-0.19</v>
+      </c>
+      <c r="I42" t="s">
+        <v>55</v>
+      </c>
+      <c r="J42" t="s">
+        <v>55</v>
+      </c>
+      <c r="K42">
+        <v>-0.19</v>
+      </c>
+      <c r="M42" s="2">
+        <v>-3019.72</v>
+      </c>
+      <c r="N42" s="2">
+        <v>-3019.72</v>
+      </c>
+      <c r="O42" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>56</v>
+      </c>
+      <c r="R42" t="s">
+        <v>57</v>
+      </c>
+      <c r="S42">
+        <v>15673</v>
+      </c>
+      <c r="T42" t="s">
+        <v>58</v>
+      </c>
+      <c r="U42" t="s">
+        <v>59</v>
+      </c>
+      <c r="V42" t="s">
+        <v>60</v>
+      </c>
+      <c r="W42" t="s">
+        <v>61</v>
+      </c>
+      <c r="X42">
+        <v>2107345</v>
+      </c>
+      <c r="Y42" s="1">
+        <v>45352</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA42">
+        <v>1</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL42" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM42" s="1">
+        <v>45351</v>
+      </c>
+      <c r="AN42" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO42" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP42">
+        <v>1201</v>
+      </c>
+      <c r="AQ42" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR42" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU42" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV42" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX42" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY42">
+        <v>920410</v>
+      </c>
+      <c r="AZ42">
+        <v>1201.9204099999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43">
+        <v>24001333</v>
+      </c>
+      <c r="D43">
+        <v>1201</v>
+      </c>
+      <c r="E43" s="1">
+        <v>45351</v>
+      </c>
+      <c r="F43" t="s">
+        <v>66</v>
+      </c>
+      <c r="G43">
+        <v>0.04</v>
+      </c>
+      <c r="H43">
+        <v>0.04</v>
+      </c>
+      <c r="I43" t="s">
+        <v>55</v>
+      </c>
+      <c r="J43" t="s">
+        <v>55</v>
+      </c>
+      <c r="L43">
+        <v>603.94000000000005</v>
+      </c>
+      <c r="N43">
+        <v>603.94000000000005</v>
+      </c>
+      <c r="O43" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>56</v>
+      </c>
+      <c r="R43" t="s">
+        <v>57</v>
+      </c>
+      <c r="S43">
+        <v>15673</v>
+      </c>
+      <c r="T43" t="s">
+        <v>58</v>
+      </c>
+      <c r="U43" t="s">
+        <v>59</v>
+      </c>
+      <c r="V43" t="s">
+        <v>60</v>
+      </c>
+      <c r="W43" t="s">
+        <v>61</v>
+      </c>
+      <c r="X43">
+        <v>2107345</v>
+      </c>
+      <c r="Y43" s="1">
+        <v>45352</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA43">
+        <v>1</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL43" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM43" s="1">
+        <v>45351</v>
+      </c>
+      <c r="AN43" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO43" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP43">
+        <v>1201</v>
+      </c>
+      <c r="AQ43" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR43" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU43" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV43" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX43" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY43">
+        <v>920410</v>
+      </c>
+      <c r="AZ43">
+        <v>1201.9204099999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F44" t="s">
+        <v>88</v>
+      </c>
+      <c r="G44" s="2">
+        <v>1608.04</v>
+      </c>
+      <c r="H44" s="2">
+        <v>1611.77</v>
+      </c>
+      <c r="K44">
+        <v>-3.73</v>
+      </c>
+      <c r="L44" s="2">
+        <v>442401.3</v>
+      </c>
+      <c r="M44" s="2">
+        <v>-58971.61</v>
+      </c>
+      <c r="N44" s="2">
+        <v>383429.69</v>
+      </c>
+      <c r="AG44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F45" t="s">
+        <v>89</v>
+      </c>
+      <c r="G45" s="2">
+        <v>1608.04</v>
+      </c>
+      <c r="H45" s="2">
+        <v>1608.04</v>
+      </c>
+      <c r="L45" s="2">
+        <v>383429.69</v>
+      </c>
+      <c r="N45" s="2">
+        <v>383429.69</v>
+      </c>
+      <c r="AG45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F46" t="s">
+        <v>90</v>
+      </c>
+      <c r="G46" s="2">
+        <v>1608.04</v>
+      </c>
+      <c r="H46" s="2">
+        <v>1611.77</v>
+      </c>
+      <c r="K46">
+        <v>-3.73</v>
+      </c>
+      <c r="L46" s="2">
+        <v>442401.3</v>
+      </c>
+      <c r="M46" s="2">
+        <v>-58971.61</v>
+      </c>
+      <c r="N46" s="2">
+        <v>383429.69</v>
+      </c>
+      <c r="AG46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F47" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
